--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.686013845937</v>
+        <v>456.2729051955225</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.2329193842027</v>
+        <v>624.2927182284345</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.4289354991378</v>
+        <v>564.711097401045</v>
       </c>
       <c r="AD2" t="n">
-        <v>419686.013845937</v>
+        <v>456272.9051955225</v>
       </c>
       <c r="AE2" t="n">
-        <v>574232.9193842027</v>
+        <v>624292.7182284346</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.14807233511462e-06</v>
+        <v>3.974496216294541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0751953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>519428.9354991378</v>
+        <v>564711.097401045</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.4593613175746</v>
+        <v>229.9359033995022</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.118562381876</v>
+        <v>314.6084470871788</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.2890013406127</v>
+        <v>284.5826584530004</v>
       </c>
       <c r="AD3" t="n">
-        <v>205459.3613175746</v>
+        <v>229935.9033995022</v>
       </c>
       <c r="AE3" t="n">
-        <v>281118.562381876</v>
+        <v>314608.4470871788</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.336808674953771e-06</v>
+        <v>6.173969673323363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.554036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>254289.0013406127</v>
+        <v>284582.6584530004</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.2020085297805</v>
+        <v>195.5079584111159</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.2461409698988</v>
+        <v>267.5026139003547</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.890018042323</v>
+        <v>241.9725398720597</v>
       </c>
       <c r="AD4" t="n">
-        <v>171202.0085297805</v>
+        <v>195507.9584111159</v>
       </c>
       <c r="AE4" t="n">
-        <v>234246.1409698988</v>
+        <v>267502.6139003547</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.786926322956013e-06</v>
+        <v>7.006805169422636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.012044270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>211890.018042323</v>
+        <v>241972.5398720597</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.2925912128076</v>
+        <v>170.6837924401637</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.1639772708999</v>
+        <v>233.537094854005</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.0606082121286</v>
+        <v>211.2486422925775</v>
       </c>
       <c r="AD5" t="n">
-        <v>146292.5912128076</v>
+        <v>170683.7924401637</v>
       </c>
       <c r="AE5" t="n">
-        <v>200163.9772708999</v>
+        <v>233537.094854005</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.954238255173399e-06</v>
+        <v>7.316376048702847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.8427734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>181060.6082121286</v>
+        <v>211248.6422925775</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.7676289334653</v>
+        <v>171.1588301608213</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.8139448374886</v>
+        <v>234.1870624205937</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.6485437863974</v>
+        <v>211.8365778668463</v>
       </c>
       <c r="AD6" t="n">
-        <v>146767.6289334653</v>
+        <v>171158.8301608213</v>
       </c>
       <c r="AE6" t="n">
-        <v>200813.9448374886</v>
+        <v>234187.0624205937</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.95451835327421e-06</v>
+        <v>7.316894303523071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.8427734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>181648.5437863974</v>
+        <v>211836.5778668463</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.1740203595515</v>
+        <v>333.0581871812772</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.5559197626823</v>
+        <v>455.7049051916285</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.186372332716</v>
+        <v>412.21306862599</v>
       </c>
       <c r="AD2" t="n">
-        <v>286174.0203595515</v>
+        <v>333058.1871812772</v>
       </c>
       <c r="AE2" t="n">
-        <v>391555.9197626823</v>
+        <v>455704.9051916285</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.643168521473535e-06</v>
+        <v>5.03828712846645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.947265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>354186.372332716</v>
+        <v>412213.0686259901</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.5384494918091</v>
+        <v>190.9806224112227</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.233497869331</v>
+        <v>261.3081130533359</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.355774563983</v>
+        <v>236.3692334918419</v>
       </c>
       <c r="AD3" t="n">
-        <v>167538.4494918091</v>
+        <v>190980.6224112227</v>
       </c>
       <c r="AE3" t="n">
-        <v>229233.497869331</v>
+        <v>261308.1130533359</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.755161475786361e-06</v>
+        <v>7.157917315926592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207355.774563983</v>
+        <v>236369.2334918419</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.8420849291936</v>
+        <v>160.3695091946278</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.2333776467538</v>
+        <v>219.4246374834078</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.3640868678962</v>
+        <v>198.4830580464672</v>
       </c>
       <c r="AD4" t="n">
-        <v>136842.0849291936</v>
+        <v>160369.5091946278</v>
       </c>
       <c r="AE4" t="n">
-        <v>187233.3776467537</v>
+        <v>219424.6374834079</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.048975648201858e-06</v>
+        <v>7.717972473596509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.8818359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>169364.0868678962</v>
+        <v>198483.0580464673</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.357903088436</v>
+        <v>160.8853273538701</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.9391428085199</v>
+        <v>220.130402645174</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.0024947931713</v>
+        <v>199.1214659717423</v>
       </c>
       <c r="AD5" t="n">
-        <v>137357.903088436</v>
+        <v>160885.3273538701</v>
       </c>
       <c r="AE5" t="n">
-        <v>187939.1428085199</v>
+        <v>220130.402645174</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.048589304779879e-06</v>
+        <v>7.717236043408909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.883463541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>170002.4947931712</v>
+        <v>199121.4659717423</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8866633357517</v>
+        <v>149.7282969721126</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3484188541814</v>
+        <v>204.8648614634193</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5179732653479</v>
+        <v>185.3128466150478</v>
       </c>
       <c r="AD2" t="n">
-        <v>128886.6633357517</v>
+        <v>149728.2969721126</v>
       </c>
       <c r="AE2" t="n">
-        <v>176348.4188541814</v>
+        <v>204864.8614634193</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.106794737750402e-06</v>
+        <v>8.746398031175047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159517.9732653479</v>
+        <v>185312.8466150478</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.2051132356412</v>
+        <v>150.0467468720021</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.784136056228</v>
+        <v>205.3005786654659</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.9121062291642</v>
+        <v>185.7069795788641</v>
       </c>
       <c r="AD3" t="n">
-        <v>129205.1132356412</v>
+        <v>150046.7468720021</v>
       </c>
       <c r="AE3" t="n">
-        <v>176784.136056228</v>
+        <v>205300.5786654659</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.116817881973228e-06</v>
+        <v>8.767744705283413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.261067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>159912.1062291642</v>
+        <v>185706.9795788641</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.9819990102485</v>
+        <v>196.8120462942775</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.3674054209404</v>
+        <v>269.2869244743924</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.9540951492617</v>
+        <v>243.5865583492075</v>
       </c>
       <c r="AD2" t="n">
-        <v>163981.9990102485</v>
+        <v>196812.0462942775</v>
       </c>
       <c r="AE2" t="n">
-        <v>224367.4054209404</v>
+        <v>269286.9244743924</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.619832620274922e-06</v>
+        <v>7.349511709906983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202954.0951492617</v>
+        <v>243586.5583492075</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.860182400335</v>
+        <v>156.7185231467148</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.521651171402</v>
+        <v>214.4291973025191</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.9111637614191</v>
+        <v>193.9643756652966</v>
       </c>
       <c r="AD3" t="n">
-        <v>134860.182400335</v>
+        <v>156718.5231467148</v>
       </c>
       <c r="AE3" t="n">
-        <v>184521.651171402</v>
+        <v>214429.1973025191</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.152682539996376e-06</v>
+        <v>8.431381270030011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.041341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166911.1637614192</v>
+        <v>193964.3756652966</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9950648831426</v>
+        <v>146.173382331701</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3920062830032</v>
+        <v>200.0008704206452</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9391551571018</v>
+        <v>180.9130680507402</v>
       </c>
       <c r="AD2" t="n">
-        <v>125995.0648831426</v>
+        <v>146173.382331701</v>
       </c>
       <c r="AE2" t="n">
-        <v>172392.0062830032</v>
+        <v>200000.8704206452</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.978028787702464e-06</v>
+        <v>8.858293105554956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.580078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>155939.1551571018</v>
+        <v>180913.0680507402</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.2135290233376</v>
+        <v>357.7599686600926</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.8667654673837</v>
+        <v>489.5029723766307</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.7910601315673</v>
+        <v>442.7854957147409</v>
       </c>
       <c r="AD2" t="n">
-        <v>322213.5290233376</v>
+        <v>357759.9686600926</v>
       </c>
       <c r="AE2" t="n">
-        <v>440866.7654673837</v>
+        <v>489502.9723766307</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509349161853633e-06</v>
+        <v>4.744586227121994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.207682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>398791.0601315673</v>
+        <v>442785.4957147409</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.0252376715232</v>
+        <v>200.694446980686</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.2137399843656</v>
+        <v>274.5989963729639</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.0972005894471</v>
+        <v>248.3916535613207</v>
       </c>
       <c r="AD3" t="n">
-        <v>177025.2376715232</v>
+        <v>200694.446980686</v>
       </c>
       <c r="AE3" t="n">
-        <v>242213.7399843656</v>
+        <v>274598.9963729639</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.644758826100955e-06</v>
+        <v>6.891377569284075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.274088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>219097.2005894471</v>
+        <v>248391.6535613207</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.9510929085423</v>
+        <v>163.7055535637256</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.4872595238482</v>
+        <v>223.9891605650957</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.2119842290028</v>
+        <v>202.6119494515886</v>
       </c>
       <c r="AD4" t="n">
-        <v>139951.0929085423</v>
+        <v>163705.5535637256</v>
       </c>
       <c r="AE4" t="n">
-        <v>191487.2595238482</v>
+        <v>223989.1605650957</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.01815564790409e-06</v>
+        <v>7.597382713928676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.876953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>173211.9842290028</v>
+        <v>202611.9494515886</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.904812439618</v>
+        <v>163.6592730948013</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.4239365445158</v>
+        <v>223.9258375857633</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.1547047059435</v>
+        <v>202.5546699285293</v>
       </c>
       <c r="AD5" t="n">
-        <v>139904.812439618</v>
+        <v>163659.2730948013</v>
       </c>
       <c r="AE5" t="n">
-        <v>191423.9365445158</v>
+        <v>223925.8375857633</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.024664487658671e-06</v>
+        <v>7.609689391661523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.870442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>173154.7047059436</v>
+        <v>202554.6699285293</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.33083704571</v>
+        <v>155.6442631455343</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.8514245690501</v>
+        <v>212.9593473758983</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.3547272067261</v>
+        <v>192.6348061527248</v>
       </c>
       <c r="AD2" t="n">
-        <v>126330.83704571</v>
+        <v>155644.2631455343</v>
       </c>
       <c r="AE2" t="n">
-        <v>172851.4245690501</v>
+        <v>212959.3473758983</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.823954915483447e-06</v>
+        <v>8.766671885793354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.876302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156354.7272067261</v>
+        <v>192634.8061527248</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.9731147610078</v>
+        <v>248.7637856028725</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.1863848460972</v>
+        <v>340.3695861453571</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.6780702222938</v>
+        <v>307.8851905554601</v>
       </c>
       <c r="AD2" t="n">
-        <v>225973.1147610078</v>
+        <v>248763.7856028725</v>
       </c>
       <c r="AE2" t="n">
-        <v>309186.3848460972</v>
+        <v>340369.5861453571</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.079440938715817e-06</v>
+        <v>6.035661682211913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279678.0702222938</v>
+        <v>307885.1905554601</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.1827141081789</v>
+        <v>165.1979043990061</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.4899768156257</v>
+        <v>226.0310608157977</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.3597053441573</v>
+        <v>204.4589736081893</v>
       </c>
       <c r="AD3" t="n">
-        <v>131182.7141081789</v>
+        <v>165197.9043990062</v>
       </c>
       <c r="AE3" t="n">
-        <v>179489.9768156257</v>
+        <v>226031.0608157977</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.089203007067712e-06</v>
+        <v>8.014781381336304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.961588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>162359.7053441573</v>
+        <v>204458.9736081893</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.2184144628827</v>
+        <v>153.0089957961964</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.1705794990342</v>
+        <v>209.3536583287457</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.1662294556751</v>
+        <v>189.3732390076148</v>
       </c>
       <c r="AD4" t="n">
-        <v>130218.4144628827</v>
+        <v>153008.9957961964</v>
       </c>
       <c r="AE4" t="n">
-        <v>178170.5794990342</v>
+        <v>209353.6583287457</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.117862854873501e-06</v>
+        <v>8.070954286958441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.933919270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>161166.2294556751</v>
+        <v>189373.2390076148</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.8259134524646</v>
+        <v>299.7635452504784</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.3464980803992</v>
+        <v>410.1497072459742</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.7646568601091</v>
+        <v>371.0055948351471</v>
       </c>
       <c r="AD2" t="n">
-        <v>264825.9134524646</v>
+        <v>299763.5452504784</v>
       </c>
       <c r="AE2" t="n">
-        <v>362346.4980803992</v>
+        <v>410149.7072459742</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.780208162457731e-06</v>
+        <v>5.345514800440111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.7080078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>327764.6568601091</v>
+        <v>371005.5948351471</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.4499594237054</v>
+        <v>181.6564626096936</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7982248022739</v>
+        <v>248.5503862599916</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.1073065054266</v>
+        <v>224.8290862380684</v>
       </c>
       <c r="AD3" t="n">
-        <v>158449.9594237054</v>
+        <v>181656.4626096936</v>
       </c>
       <c r="AE3" t="n">
-        <v>216798.2248022739</v>
+        <v>248550.3862599916</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.875267356978414e-06</v>
+        <v>7.450988487882872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.095052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>196107.3065054266</v>
+        <v>224829.0862380684</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.5497518432866</v>
+        <v>157.8415063752954</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.096906388019</v>
+        <v>215.9657124983859</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.5269560240291</v>
+        <v>195.354248007383</v>
       </c>
       <c r="AD4" t="n">
-        <v>134549.7518432866</v>
+        <v>157841.5063752954</v>
       </c>
       <c r="AE4" t="n">
-        <v>184096.906388019</v>
+        <v>215965.7124983859</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.078366662666829e-06</v>
+        <v>7.841488148727256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.8916015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>166526.9560240291</v>
+        <v>195354.248007383</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.6311439279888</v>
+        <v>423.9172248308953</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.9551027987752</v>
+        <v>580.0222489216771</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.9039491281766</v>
+        <v>524.6657395509307</v>
       </c>
       <c r="AD2" t="n">
-        <v>375631.1439279888</v>
+        <v>423917.2248308954</v>
       </c>
       <c r="AE2" t="n">
-        <v>513955.1027987752</v>
+        <v>580022.2489216771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265756150981509e-06</v>
+        <v>4.220931859776309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.761067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464903.9491281766</v>
+        <v>524665.7395509307</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.4848914491876</v>
+        <v>219.5853509819058</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.4710526654018</v>
+        <v>300.4463646352854</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.9439907970743</v>
+        <v>271.7721852737037</v>
       </c>
       <c r="AD3" t="n">
-        <v>195484.8914491876</v>
+        <v>219585.3509819058</v>
       </c>
       <c r="AE3" t="n">
-        <v>267471.0526654018</v>
+        <v>300446.3646352854</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.437079143925054e-06</v>
+        <v>6.403017754969494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.456380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>241943.9907970743</v>
+        <v>271772.1852737037</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.5335009043234</v>
+        <v>174.7192117830622</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9665770065599</v>
+        <v>239.0585336290928</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.3094159730189</v>
+        <v>216.2431227003605</v>
       </c>
       <c r="AD4" t="n">
-        <v>150533.5009043234</v>
+        <v>174719.2117830622</v>
       </c>
       <c r="AE4" t="n">
-        <v>205966.5770065599</v>
+        <v>239058.5336290927</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.889289250071105e-06</v>
+        <v>7.245450884200031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.938802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>186309.4159730189</v>
+        <v>216243.1227003605</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.2323260439996</v>
+        <v>168.4180369227383</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.3450315744537</v>
+        <v>230.4369881969866</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.5106987365352</v>
+        <v>208.4444054638768</v>
       </c>
       <c r="AD5" t="n">
-        <v>144232.3260439996</v>
+        <v>168418.0369227383</v>
       </c>
       <c r="AE5" t="n">
-        <v>197345.0315744538</v>
+        <v>230436.9881969866</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.974743313833979e-06</v>
+        <v>7.404645323605094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>178510.6987365352</v>
+        <v>208444.4054638768</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9525986347356</v>
+        <v>213.2287082474906</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2190844002818</v>
+        <v>291.7489256107776</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7202805558458</v>
+        <v>263.9048176227598</v>
       </c>
       <c r="AD2" t="n">
-        <v>179952.5986347356</v>
+        <v>213228.7082474906</v>
       </c>
       <c r="AE2" t="n">
-        <v>246219.0844002818</v>
+        <v>291748.9256107776</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425471468121466e-06</v>
+        <v>6.866348497355361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222720.2805558458</v>
+        <v>263904.8176227598</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.4061994338466</v>
+        <v>159.5619150660438</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.005223998995</v>
+        <v>218.3196515681414</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.062269287573</v>
+        <v>197.483530436096</v>
       </c>
       <c r="AD3" t="n">
-        <v>137406.1994338466</v>
+        <v>159561.9150660438</v>
       </c>
       <c r="AE3" t="n">
-        <v>188005.223998995</v>
+        <v>218319.6515681414</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137770790169314e-06</v>
+        <v>8.294150604343177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.005533854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170062.269287573</v>
+        <v>197483.530436096</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.5204593604208</v>
+        <v>156.725706028144</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.4250712375545</v>
+        <v>214.439025237777</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.7283626844165</v>
+        <v>193.9732656362071</v>
       </c>
       <c r="AD2" t="n">
-        <v>135520.4593604208</v>
+        <v>156725.706028144</v>
       </c>
       <c r="AE2" t="n">
-        <v>185425.0712375545</v>
+        <v>214439.025237777</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.032208273391732e-06</v>
+        <v>8.435631873841575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.280598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167728.3626844164</v>
+        <v>193973.2656362071</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.0378158534711</v>
+        <v>152.2430625211943</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.2917206310747</v>
+        <v>208.3056746312971</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.1803704516055</v>
+        <v>188.4252734033961</v>
       </c>
       <c r="AD3" t="n">
-        <v>131037.8158534711</v>
+        <v>152243.0625211943</v>
       </c>
       <c r="AE3" t="n">
-        <v>179291.7206310747</v>
+        <v>208305.6746312971</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134766083969859e-06</v>
+        <v>8.650189227322856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1748046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>162180.3704516054</v>
+        <v>188425.2734033961</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.2883672702528</v>
+        <v>147.7338863300199</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1615596655209</v>
+        <v>202.1360208357218</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5398248483763</v>
+        <v>182.8444427069049</v>
       </c>
       <c r="AD2" t="n">
-        <v>127288.3672702528</v>
+        <v>147733.8863300199</v>
       </c>
       <c r="AE2" t="n">
-        <v>174161.5596655209</v>
+        <v>202136.0208357217</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.05681409225055e-06</v>
+        <v>8.818928721675332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157539.8248483763</v>
+        <v>182844.442706905</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.2193811094941</v>
+        <v>165.5859209320232</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.7496109257732</v>
+        <v>226.5619621543527</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.8310515673042</v>
+        <v>204.9392064681175</v>
       </c>
       <c r="AD2" t="n">
-        <v>137219.3811094941</v>
+        <v>165585.9209320232</v>
       </c>
       <c r="AE2" t="n">
-        <v>187749.6109257732</v>
+        <v>226561.9621543527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571957548114877e-06</v>
+        <v>8.495997340750975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3662109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>169831.0515673042</v>
+        <v>204939.2064681175</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.8669849416817</v>
+        <v>278.2661616445533</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.6695674491208</v>
+        <v>380.7360385987173</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.8246122400552</v>
+        <v>344.3991254412413</v>
       </c>
       <c r="AD2" t="n">
-        <v>243866.9849416817</v>
+        <v>278266.1616445533</v>
       </c>
       <c r="AE2" t="n">
-        <v>333669.5674491209</v>
+        <v>380736.0385987173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932043191247776e-06</v>
+        <v>5.689859083699548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.467122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>301824.6122400552</v>
+        <v>344399.1254412413</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.4132564551641</v>
+        <v>172.3745177114504</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.4338091295239</v>
+        <v>235.8504197597131</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.9229333109134</v>
+        <v>213.3411867160574</v>
       </c>
       <c r="AD3" t="n">
-        <v>149413.2564551641</v>
+        <v>172374.5177114504</v>
       </c>
       <c r="AE3" t="n">
-        <v>204433.8091295239</v>
+        <v>235850.4197597131</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.996969471564611e-06</v>
+        <v>7.756431802552471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184922.9333109134</v>
+        <v>213341.1867160574</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.7154584896564</v>
+        <v>155.7619710919632</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.5871452982719</v>
+        <v>213.1204005811103</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.2567230102148</v>
+        <v>192.780488666071</v>
       </c>
       <c r="AD4" t="n">
-        <v>132715.4584896564</v>
+        <v>155761.9710919632</v>
       </c>
       <c r="AE4" t="n">
-        <v>181587.1452982719</v>
+        <v>213120.4005811104</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.095150671997003e-06</v>
+        <v>7.946960099269354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.914388020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>164256.7230102148</v>
+        <v>192780.488666071</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.065063242356</v>
+        <v>383.9403040087088</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.2379750750426</v>
+        <v>525.3240621954875</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.7864911380757</v>
+        <v>475.1878709965014</v>
       </c>
       <c r="AD2" t="n">
-        <v>348065.063242356</v>
+        <v>383940.3040087088</v>
       </c>
       <c r="AE2" t="n">
-        <v>476237.9750750426</v>
+        <v>525324.0621954876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.383672897332644e-06</v>
+        <v>4.472705301615191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4794921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>430786.4911380757</v>
+        <v>475187.8709965014</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.2534501025575</v>
+        <v>210.1418601647856</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.8401873524998</v>
+        <v>287.5253638818966</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.5185975421008</v>
+        <v>260.0843466974757</v>
       </c>
       <c r="AD3" t="n">
-        <v>186253.4501025575</v>
+        <v>210141.8601647856</v>
       </c>
       <c r="AE3" t="n">
-        <v>254840.1873524998</v>
+        <v>287525.3638818965</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.538832345528443e-06</v>
+        <v>6.640237513747908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.365234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>230518.5975421008</v>
+        <v>260084.3466974757</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.0016724969435</v>
+        <v>167.975333905192</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.0294412156554</v>
+        <v>229.8312623977013</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.2252278786466</v>
+        <v>207.8964892847337</v>
       </c>
       <c r="AD4" t="n">
-        <v>144001.6724969434</v>
+        <v>167975.333905192</v>
       </c>
       <c r="AE4" t="n">
-        <v>197029.4412156554</v>
+        <v>229831.2623977013</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962539479036556e-06</v>
+        <v>7.435278286537901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.898111979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178225.2278786466</v>
+        <v>207896.4892847337</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.4420748137221</v>
+        <v>165.4157362219706</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.5272867439934</v>
+        <v>226.3291079260394</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.0573141144543</v>
+        <v>204.7285755205413</v>
       </c>
       <c r="AD5" t="n">
-        <v>141442.0748137221</v>
+        <v>165415.7362219706</v>
       </c>
       <c r="AE5" t="n">
-        <v>193527.2867439934</v>
+        <v>226329.1079260394</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.010746248089661e-06</v>
+        <v>7.525733093386124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.850911458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>175057.3141144543</v>
+        <v>204728.5755205413</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.7396353898775</v>
+        <v>179.1349629335567</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.6168634205923</v>
+        <v>245.1003591623882</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.8022013678881</v>
+        <v>221.7083248845156</v>
       </c>
       <c r="AD2" t="n">
-        <v>151739.6353898775</v>
+        <v>179134.9629335568</v>
       </c>
       <c r="AE2" t="n">
-        <v>207616.8634205923</v>
+        <v>245100.3591623882</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.088242470116405e-06</v>
+        <v>7.7234600524864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.42578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>187802.2013678881</v>
+        <v>221708.3248845156</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.600432752417</v>
+        <v>169.143075355082</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9534237632892</v>
+        <v>231.4290177665568</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6792724427887</v>
+        <v>209.3417571236499</v>
       </c>
       <c r="AD2" t="n">
-        <v>147600.4327524171</v>
+        <v>169143.075355082</v>
       </c>
       <c r="AE2" t="n">
-        <v>201953.4237632892</v>
+        <v>231429.0177665568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.849066429510971e-06</v>
+        <v>7.926318827493744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>182679.2724427887</v>
+        <v>209341.7571236499</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.0676525118004</v>
+        <v>154.6102951144653</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.0690326970727</v>
+        <v>211.5446267003403</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.6926197520075</v>
+        <v>191.3551044328686</v>
       </c>
       <c r="AD3" t="n">
-        <v>133067.6525118003</v>
+        <v>154610.2951144653</v>
       </c>
       <c r="AE3" t="n">
-        <v>182069.0326970727</v>
+        <v>211544.6267003403</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.148597353157511e-06</v>
+        <v>8.54313790375422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.099934895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164692.6197520075</v>
+        <v>191355.1044328686</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6525400863716</v>
+        <v>230.1752442524694</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1193663295612</v>
+        <v>314.9359238011816</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.0034127711865</v>
+        <v>284.8788812490354</v>
       </c>
       <c r="AD2" t="n">
-        <v>207652.5400863716</v>
+        <v>230175.2442524694</v>
       </c>
       <c r="AE2" t="n">
-        <v>284119.3663295612</v>
+        <v>314935.9238011816</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.250710391480031e-06</v>
+        <v>6.440255779607572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.037434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257003.4127711865</v>
+        <v>284878.8812490354</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.2632658397631</v>
+        <v>161.87650611694</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.4954588978136</v>
+        <v>221.4865771565264</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.7464186100788</v>
+        <v>200.3482090911346</v>
       </c>
       <c r="AD3" t="n">
-        <v>128263.2658397631</v>
+        <v>161876.5061169401</v>
       </c>
       <c r="AE3" t="n">
-        <v>175495.4588978136</v>
+        <v>221486.5771565264</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.122302461405123e-06</v>
+        <v>8.167040140499072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.972981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158746.4186100788</v>
+        <v>200348.2090911346</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.8466438214227</v>
+        <v>162.4598840985997</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.2936623891401</v>
+        <v>222.2847806478529</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.468442680479</v>
+        <v>201.0702331615348</v>
       </c>
       <c r="AD4" t="n">
-        <v>128846.6438214227</v>
+        <v>162459.8840985997</v>
       </c>
       <c r="AE4" t="n">
-        <v>176293.6623891401</v>
+        <v>222284.7806478529</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.122000593913808e-06</v>
+        <v>8.166442085421415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.972981770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>159468.442680479</v>
+        <v>201070.2331615348</v>
       </c>
     </row>
   </sheetData>
